--- a/02TeamAndTestSchedule/Q3 2023 Schedule.xlsx
+++ b/02TeamAndTestSchedule/Q3 2023 Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27004"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alorica.sharepoint.com/sites/TikTokTL/Shared Documents/General/Schedules/Moderators' Schedule/2023/Q3 2023/MI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timda\OneDrive\Desktop\Uploads\Social-Network-Project\02TeamAndTestSchedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5169" documentId="10_ncr:20000_{52D413C1-49F7-4034-9D08-484A7D9C5B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F71DC6ED-FC04-4D1E-B9BE-C2D0477EADF1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD5FFBE-FE41-4290-90B1-F4760BEE1960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="61" r:id="rId1"/>
@@ -230,7 +230,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="58">
   <si>
     <t>WEEK 1</t>
   </si>
@@ -398,13 +398,19 @@
   </si>
   <si>
     <t>TEST CLOSURE</t>
+  </si>
+  <si>
+    <t>PERFORMANCE TEST</t>
+  </si>
+  <si>
+    <t>SECURITY TESTING</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,7 +499,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="29">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -659,6 +665,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF006100"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -878,7 +896,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -953,6 +971,60 @@
     <xf numFmtId="0" fontId="4" fillId="28" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -974,59 +1046,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1038,6 +1062,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF006100"/>
       <color rgb="FFD6BDDB"/>
       <color rgb="FFD0CECE"/>
       <color rgb="FFFFC7CE"/>
@@ -1045,7 +1070,6 @@
       <color rgb="FF305496"/>
       <color rgb="FF404040"/>
       <color rgb="FF92D050"/>
-      <color rgb="FF006100"/>
       <color rgb="FF002060"/>
       <color rgb="FF525252"/>
     </mruColors>
@@ -1445,71 +1469,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBCBB21C-9F4F-43AE-A6C9-EB8C46D883BC}">
   <dimension ref="A1:AX48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB23" sqref="AB23"/>
+    <sheetView tabSelected="1" topLeftCell="AE8" workbookViewId="0">
+      <selection activeCell="AK20" sqref="AK20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="62" width="13.42578125" customWidth="1"/>
-    <col min="63" max="275" width="9.140625" customWidth="1"/>
-    <col min="276" max="368" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="36.87890625" customWidth="1"/>
+    <col min="2" max="2" width="33.703125" customWidth="1"/>
+    <col min="3" max="62" width="13.41015625" customWidth="1"/>
+    <col min="63" max="275" width="9.1171875" customWidth="1"/>
+    <col min="276" max="368" width="13.41015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.5">
       <c r="A1" s="18"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
-      <c r="G1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="29" t="s">
+      <c r="G1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="28" t="s">
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="28" t="s">
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="AJ1" s="29"/>
-      <c r="AK1" s="29"/>
-      <c r="AL1" s="29"/>
-      <c r="AM1" s="29"/>
-      <c r="AN1" s="29"/>
-      <c r="AO1" s="30"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47"/>
+      <c r="AO1" s="48"/>
       <c r="AP1" s="18"/>
       <c r="AQ1" s="18"/>
       <c r="AR1" s="18"/>
@@ -1520,11 +1544,11 @@
       <c r="AW1" s="18"/>
       <c r="AX1" s="18"/>
     </row>
-    <row r="2" spans="1:50">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.5">
+      <c r="A2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="51">
         <f>SUM(DV10:EW10)</f>
         <v>0</v>
       </c>
@@ -1720,9 +1744,9 @@
         <v>45230</v>
       </c>
     </row>
-    <row r="3" spans="1:50">
-      <c r="A3" s="32"/>
-      <c r="B3" s="34"/>
+    <row r="3" spans="1:50" x14ac:dyDescent="0.5">
+      <c r="A3" s="50"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="14" t="s">
         <v>6</v>
       </c>
@@ -1868,7 +1892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:50" ht="30.75">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.5">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -2020,7 +2044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:50">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.5">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -2172,7 +2196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:50">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.5">
       <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
@@ -2322,799 +2346,799 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:50">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.5">
       <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3">
-        <f>COUNTIF(C14:C25, "10:00 - 18:00")+COUNTIF(C14:C25,"10:00 - 18:00 - office")</f>
+        <f t="shared" ref="C7:AX7" si="45">COUNTIF(C14:C25, "10:00 - 18:00")+COUNTIF(C14:C25,"10:00 - 18:00 - office")</f>
         <v>3</v>
       </c>
       <c r="D7" s="3">
-        <f>COUNTIF(D14:D25, "10:00 - 18:00")+COUNTIF(D14:D25,"10:00 - 18:00 - office")</f>
+        <f t="shared" si="45"/>
         <v>3</v>
       </c>
       <c r="E7" s="3">
-        <f>COUNTIF(E14:E25, "10:00 - 18:00")+COUNTIF(E14:E25,"10:00 - 18:00 - office")</f>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="F7" s="3">
-        <f>COUNTIF(F14:F25, "10:00 - 18:00")+COUNTIF(F14:F25,"10:00 - 18:00 - office")</f>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="G7" s="3">
-        <f>COUNTIF(G14:G25, "10:00 - 18:00")+COUNTIF(G14:G25,"10:00 - 18:00 - office")</f>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="H7" s="3">
-        <f>COUNTIF(H14:H25, "10:00 - 18:00")+COUNTIF(H14:H25,"10:00 - 18:00 - office")</f>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="I7" s="3">
-        <f>COUNTIF(I14:I25, "10:00 - 18:00")+COUNTIF(I14:I25,"10:00 - 18:00 - office")</f>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="J7" s="3">
-        <f>COUNTIF(J14:J25, "10:00 - 18:00")+COUNTIF(J14:J25,"10:00 - 18:00 - office")</f>
+        <f t="shared" si="45"/>
         <v>3</v>
       </c>
       <c r="K7" s="3">
-        <f>COUNTIF(K14:K25, "10:00 - 18:00")+COUNTIF(K14:K25,"10:00 - 18:00 - office")</f>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="L7" s="3">
-        <f>COUNTIF(L14:L25, "10:00 - 18:00")+COUNTIF(L14:L25,"10:00 - 18:00 - office")</f>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="M7" s="3">
-        <f>COUNTIF(M14:M25, "10:00 - 18:00")+COUNTIF(M14:M25,"10:00 - 18:00 - office")</f>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="N7" s="3">
-        <f>COUNTIF(N14:N25, "10:00 - 18:00")+COUNTIF(N14:N25,"10:00 - 18:00 - office")</f>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="O7" s="3">
-        <f>COUNTIF(O14:O25, "10:00 - 18:00")+COUNTIF(O14:O25,"10:00 - 18:00 - office")</f>
+        <f t="shared" si="45"/>
         <v>3</v>
       </c>
       <c r="P7" s="3">
-        <f>COUNTIF(P14:P25, "10:00 - 18:00")+COUNTIF(P14:P25,"10:00 - 18:00 - office")</f>
+        <f t="shared" si="45"/>
         <v>3</v>
       </c>
       <c r="Q7" s="3">
-        <f>COUNTIF(Q14:Q25, "10:00 - 18:00")+COUNTIF(Q14:Q25,"10:00 - 18:00 - office")</f>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="R7" s="3">
-        <f>COUNTIF(R14:R25, "10:00 - 18:00")+COUNTIF(R14:R25,"10:00 - 18:00 - office")</f>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="S7" s="3">
-        <f>COUNTIF(S14:S25, "10:00 - 18:00")+COUNTIF(S14:S25,"10:00 - 18:00 - office")</f>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="T7" s="3">
-        <f>COUNTIF(T14:T25, "10:00 - 18:00")+COUNTIF(T14:T25,"10:00 - 18:00 - office")</f>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="U7" s="3">
-        <f>COUNTIF(U14:U25, "10:00 - 18:00")+COUNTIF(U14:U25,"10:00 - 18:00 - office")</f>
+        <f t="shared" si="45"/>
         <v>3</v>
       </c>
       <c r="V7" s="3">
-        <f>COUNTIF(V14:V25, "10:00 - 18:00")+COUNTIF(V14:V25,"10:00 - 18:00 - office")</f>
+        <f t="shared" si="45"/>
         <v>3</v>
       </c>
       <c r="W7" s="3">
-        <f>COUNTIF(W14:W25, "10:00 - 18:00")+COUNTIF(W14:W25,"10:00 - 18:00 - office")</f>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="X7" s="3">
-        <f>COUNTIF(X14:X25, "10:00 - 18:00")+COUNTIF(X14:X25,"10:00 - 18:00 - office")</f>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="Y7" s="3">
-        <f>COUNTIF(Y14:Y25, "10:00 - 18:00")+COUNTIF(Y14:Y25,"10:00 - 18:00 - office")</f>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="Z7" s="3">
-        <f>COUNTIF(Z14:Z25, "10:00 - 18:00")+COUNTIF(Z14:Z25,"10:00 - 18:00 - office")</f>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="AA7" s="3">
-        <f>COUNTIF(AA14:AA25, "10:00 - 18:00")+COUNTIF(AA14:AA25,"10:00 - 18:00 - office")</f>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="AB7" s="3">
-        <f>COUNTIF(AB14:AB25, "10:00 - 18:00")+COUNTIF(AB14:AB25,"10:00 - 18:00 - office")</f>
+        <f t="shared" si="45"/>
         <v>3</v>
       </c>
       <c r="AC7" s="3">
-        <f>COUNTIF(AC14:AC25, "10:00 - 18:00")+COUNTIF(AC14:AC25,"10:00 - 18:00 - office")</f>
+        <f t="shared" si="45"/>
         <v>3</v>
       </c>
       <c r="AD7" s="3">
-        <f>COUNTIF(AD14:AD25, "10:00 - 18:00")+COUNTIF(AD14:AD25,"10:00 - 18:00 - office")</f>
+        <f t="shared" si="45"/>
         <v>3</v>
       </c>
       <c r="AE7" s="3">
-        <f>COUNTIF(AE14:AE25, "10:00 - 18:00")+COUNTIF(AE14:AE25,"10:00 - 18:00 - office")</f>
+        <f t="shared" si="45"/>
         <v>3</v>
       </c>
       <c r="AF7" s="3">
-        <f>COUNTIF(AF14:AF25, "10:00 - 18:00")+COUNTIF(AF14:AF25,"10:00 - 18:00 - office")</f>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="AG7" s="3">
-        <f>COUNTIF(AG14:AG25, "10:00 - 18:00")+COUNTIF(AG14:AG25,"10:00 - 18:00 - office")</f>
+        <f t="shared" si="45"/>
         <v>3</v>
       </c>
       <c r="AH7" s="3">
-        <f>COUNTIF(AH14:AH25, "10:00 - 18:00")+COUNTIF(AH14:AH25,"10:00 - 18:00 - office")</f>
+        <f t="shared" si="45"/>
         <v>3</v>
       </c>
       <c r="AI7" s="3">
-        <f>COUNTIF(AI14:AI25, "10:00 - 18:00")+COUNTIF(AI14:AI25,"10:00 - 18:00 - office")</f>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="AJ7" s="3">
-        <f>COUNTIF(AJ14:AJ25, "10:00 - 18:00")+COUNTIF(AJ14:AJ25,"10:00 - 18:00 - office")</f>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="AK7" s="3">
-        <f>COUNTIF(AK14:AK25, "10:00 - 18:00")+COUNTIF(AK14:AK25,"10:00 - 18:00 - office")</f>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="AL7" s="3">
-        <f>COUNTIF(AL14:AL25, "10:00 - 18:00")+COUNTIF(AL14:AL25,"10:00 - 18:00 - office")</f>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="AM7" s="3">
-        <f>COUNTIF(AM14:AM25, "10:00 - 18:00")+COUNTIF(AM14:AM25,"10:00 - 18:00 - office")</f>
+        <f t="shared" si="45"/>
         <v>3</v>
       </c>
       <c r="AN7" s="3">
-        <f>COUNTIF(AN14:AN25, "10:00 - 18:00")+COUNTIF(AN14:AN25,"10:00 - 18:00 - office")</f>
+        <f t="shared" si="45"/>
         <v>3</v>
       </c>
       <c r="AO7" s="3">
-        <f>COUNTIF(AO14:AO25, "10:00 - 18:00")+COUNTIF(AO14:AO25,"10:00 - 18:00 - office")</f>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="AP7" s="3">
-        <f>COUNTIF(AP14:AP25, "10:00 - 18:00")+COUNTIF(AP14:AP25,"10:00 - 18:00 - office")</f>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="AQ7" s="3">
-        <f>COUNTIF(AQ14:AQ25, "10:00 - 18:00")+COUNTIF(AQ14:AQ25,"10:00 - 18:00 - office")</f>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="AR7" s="3">
-        <f>COUNTIF(AR14:AR25, "10:00 - 18:00")+COUNTIF(AR14:AR25,"10:00 - 18:00 - office")</f>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="AS7" s="3">
-        <f>COUNTIF(AS14:AS25, "10:00 - 18:00")+COUNTIF(AS14:AS25,"10:00 - 18:00 - office")</f>
+        <f t="shared" si="45"/>
         <v>3</v>
       </c>
       <c r="AT7" s="3">
-        <f>COUNTIF(AT14:AT25, "10:00 - 18:00")+COUNTIF(AT14:AT25,"10:00 - 18:00 - office")</f>
+        <f t="shared" si="45"/>
         <v>3</v>
       </c>
       <c r="AU7" s="3">
-        <f>COUNTIF(AU14:AU25, "10:00 - 18:00")+COUNTIF(AU14:AU25,"10:00 - 18:00 - office")</f>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="AV7" s="3">
-        <f>COUNTIF(AV14:AV25, "10:00 - 18:00")+COUNTIF(AV14:AV25,"10:00 - 18:00 - office")</f>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="AW7" s="3">
-        <f>COUNTIF(AW14:AW25, "10:00 - 18:00")+COUNTIF(AW14:AW25,"10:00 - 18:00 - office")</f>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="AX7" s="3">
-        <f>COUNTIF(AX14:AX25, "10:00 - 18:00")+COUNTIF(AX14:AX25,"10:00 - 18:00 - office")</f>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:50">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.5">
       <c r="A8" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1">
-        <f>COUNTIF(C14:C25,"Day Off")</f>
+        <f t="shared" ref="C8:AX8" si="46">COUNTIF(C14:C25,"Day Off")</f>
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <f>COUNTIF(D14:D25,"Day Off")</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <f>COUNTIF(E14:E25,"Day Off")</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <f>COUNTIF(F14:F25,"Day Off")</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <f>COUNTIF(G14:G25,"Day Off")</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="H8" s="1">
-        <f>COUNTIF(H14:H25,"Day Off")</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <f>COUNTIF(I14:I25,"Day Off")</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <f>COUNTIF(J14:J25,"Day Off")</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f>COUNTIF(K14:K25,"Day Off")</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="L8" s="1">
-        <f>COUNTIF(L14:L25,"Day Off")</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="M8" s="1">
-        <f>COUNTIF(M14:M25,"Day Off")</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="N8" s="1">
-        <f>COUNTIF(N14:N25,"Day Off")</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="O8" s="1">
-        <f>COUNTIF(O14:O25,"Day Off")</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="P8" s="1">
-        <f>COUNTIF(P14:P25,"Day Off")</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <f>COUNTIF(Q14:Q25,"Day Off")</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="R8" s="1">
-        <f>COUNTIF(R14:R25,"Day Off")</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="S8" s="1">
-        <f>COUNTIF(S14:S25,"Day Off")</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="T8" s="1">
-        <f>COUNTIF(T14:T25,"Day Off")</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="U8" s="1">
-        <f>COUNTIF(U14:U25,"Day Off")</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="V8" s="1">
-        <f>COUNTIF(V14:V25,"Day Off")</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="W8" s="1">
-        <f>COUNTIF(W14:W25,"Day Off")</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X8" s="1">
-        <f>COUNTIF(X14:X25,"Day Off")</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Y8" s="1">
-        <f>COUNTIF(Y14:Y25,"Day Off")</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <f>COUNTIF(Z14:Z25,"Day Off")</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AA8" s="1">
-        <f>COUNTIF(AA14:AA25,"Day Off")</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AB8" s="1">
-        <f>COUNTIF(AB14:AB25,"Day Off")</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AC8" s="1">
-        <f>COUNTIF(AC14:AC25,"Day Off")</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AD8" s="1">
-        <f>COUNTIF(AD14:AD25,"Day Off")</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <f>COUNTIF(AE14:AE25,"Day Off")</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AF8" s="1">
-        <f>COUNTIF(AF14:AF25,"Day Off")</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AG8" s="1">
-        <f>COUNTIF(AG14:AG25,"Day Off")</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AH8" s="1">
-        <f>COUNTIF(AH14:AH25,"Day Off")</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AI8" s="1">
-        <f>COUNTIF(AI14:AI25,"Day Off")</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <f>COUNTIF(AJ14:AJ25,"Day Off")</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AK8" s="1">
-        <f>COUNTIF(AK14:AK25,"Day Off")</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AL8" s="1">
-        <f>COUNTIF(AL14:AL25,"Day Off")</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AM8" s="1">
-        <f>COUNTIF(AM14:AM25,"Day Off")</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AN8" s="1">
-        <f>COUNTIF(AN14:AN25,"Day Off")</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <f>COUNTIF(AO14:AO25,"Day Off")</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AP8" s="1">
-        <f>COUNTIF(AP14:AP25,"Day Off")</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AQ8" s="1">
-        <f>COUNTIF(AQ14:AQ25,"Day Off")</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <f>COUNTIF(AR14:AR25,"Day Off")</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AS8" s="1">
-        <f>COUNTIF(AS14:AS25,"Day Off")</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <f>COUNTIF(AT14:AT25,"Day Off")</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AU8" s="1">
-        <f>COUNTIF(AU14:AU25,"Day Off")</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AV8" s="1">
-        <f>COUNTIF(AV14:AV25,"Day Off")</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AW8" s="1">
-        <f>COUNTIF(AW14:AW25,"Day Off")</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AX8" s="1">
-        <f>COUNTIF(AX14:AX25,"Day Off")</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:50">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.5">
       <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="1">
-        <f>SUM(C4:C7)</f>
+        <f t="shared" ref="C9:AX9" si="47">SUM(C4:C7)</f>
         <v>3</v>
       </c>
       <c r="D9" s="1">
-        <f>SUM(D4:D7)</f>
+        <f t="shared" si="47"/>
         <v>3</v>
       </c>
       <c r="E9" s="1">
-        <f>SUM(E4:E7)</f>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="F9" s="1">
-        <f>SUM(F4:F7)</f>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="G9" s="1">
-        <f>SUM(G4:G7)</f>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="H9" s="1">
-        <f>SUM(H4:H7)</f>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="I9" s="1">
-        <f>SUM(I4:I7)</f>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="J9" s="1">
-        <f>SUM(J4:J7)</f>
+        <f t="shared" si="47"/>
         <v>3</v>
       </c>
       <c r="K9" s="1">
-        <f>SUM(K4:K7)</f>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="L9" s="1">
-        <f>SUM(L4:L7)</f>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="M9" s="1">
-        <f>SUM(M4:M7)</f>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="N9" s="1">
-        <f>SUM(N4:N7)</f>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="O9" s="1">
-        <f>SUM(O4:O7)</f>
+        <f t="shared" si="47"/>
         <v>3</v>
       </c>
       <c r="P9" s="1">
-        <f>SUM(P4:P7)</f>
+        <f t="shared" si="47"/>
         <v>3</v>
       </c>
       <c r="Q9" s="1">
-        <f>SUM(Q4:Q7)</f>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="R9" s="1">
-        <f>SUM(R4:R7)</f>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="S9" s="1">
-        <f>SUM(S4:S7)</f>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="T9" s="1">
-        <f>SUM(T4:T7)</f>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="U9" s="1">
-        <f>SUM(U4:U7)</f>
+        <f t="shared" si="47"/>
         <v>3</v>
       </c>
       <c r="V9" s="1">
-        <f>SUM(V4:V7)</f>
+        <f t="shared" si="47"/>
         <v>3</v>
       </c>
       <c r="W9" s="1">
-        <f>SUM(W4:W7)</f>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="X9" s="1">
-        <f>SUM(X4:X7)</f>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="Y9" s="1">
-        <f>SUM(Y4:Y7)</f>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="Z9" s="1">
-        <f>SUM(Z4:Z7)</f>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="AA9" s="1">
-        <f>SUM(AA4:AA7)</f>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="AB9" s="1">
-        <f>SUM(AB4:AB7)</f>
+        <f t="shared" si="47"/>
         <v>3</v>
       </c>
       <c r="AC9" s="1">
-        <f>SUM(AC4:AC7)</f>
+        <f t="shared" si="47"/>
         <v>3</v>
       </c>
       <c r="AD9" s="1">
-        <f>SUM(AD4:AD7)</f>
+        <f t="shared" si="47"/>
         <v>3</v>
       </c>
       <c r="AE9" s="1">
-        <f>SUM(AE4:AE7)</f>
+        <f t="shared" si="47"/>
         <v>3</v>
       </c>
       <c r="AF9" s="1">
-        <f>SUM(AF4:AF7)</f>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="AG9" s="1">
-        <f>SUM(AG4:AG7)</f>
+        <f t="shared" si="47"/>
         <v>3</v>
       </c>
       <c r="AH9" s="1">
-        <f>SUM(AH4:AH7)</f>
+        <f t="shared" si="47"/>
         <v>3</v>
       </c>
       <c r="AI9" s="1">
-        <f>SUM(AI4:AI7)</f>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="AJ9" s="1">
-        <f>SUM(AJ4:AJ7)</f>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="AK9" s="1">
-        <f>SUM(AK4:AK7)</f>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="AL9" s="1">
-        <f>SUM(AL4:AL7)</f>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="AM9" s="1">
-        <f>SUM(AM4:AM7)</f>
+        <f t="shared" si="47"/>
         <v>3</v>
       </c>
       <c r="AN9" s="1">
-        <f>SUM(AN4:AN7)</f>
+        <f t="shared" si="47"/>
         <v>3</v>
       </c>
       <c r="AO9" s="1">
-        <f>SUM(AO4:AO7)</f>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="AP9" s="1">
-        <f>SUM(AP4:AP7)</f>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="AQ9" s="1">
-        <f>SUM(AQ4:AQ7)</f>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="AR9" s="1">
-        <f>SUM(AR4:AR7)</f>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="AS9" s="1">
-        <f>SUM(AS4:AS7)</f>
+        <f t="shared" si="47"/>
         <v>3</v>
       </c>
       <c r="AT9" s="1">
-        <f>SUM(AT4:AT7)</f>
+        <f t="shared" si="47"/>
         <v>3</v>
       </c>
       <c r="AU9" s="1">
-        <f>SUM(AU4:AU7)</f>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="AV9" s="1">
-        <f>SUM(AV4:AV7)</f>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="AW9" s="1">
-        <f>SUM(AW4:AW7)</f>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="AX9" s="1">
-        <f>SUM(AX4:AX7)</f>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:50">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.5">
       <c r="A10" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3">
-        <f>(C7*8)</f>
+        <f t="shared" ref="C10:AX10" si="48">(C7*8)</f>
         <v>24</v>
       </c>
       <c r="D10" s="3">
-        <f>(D7*8)</f>
+        <f t="shared" si="48"/>
         <v>24</v>
       </c>
       <c r="E10" s="3">
-        <f>(E7*8)</f>
+        <f t="shared" si="48"/>
         <v>16</v>
       </c>
       <c r="F10" s="3">
-        <f>(F7*8)</f>
+        <f t="shared" si="48"/>
         <v>16</v>
       </c>
       <c r="G10" s="3">
-        <f>(G7*8)</f>
+        <f t="shared" si="48"/>
         <v>16</v>
       </c>
       <c r="H10" s="3">
-        <f>(H7*8)</f>
+        <f t="shared" si="48"/>
         <v>16</v>
       </c>
       <c r="I10" s="3">
-        <f>(I7*8)</f>
+        <f t="shared" si="48"/>
         <v>16</v>
       </c>
       <c r="J10" s="3">
-        <f>(J7*8)</f>
+        <f t="shared" si="48"/>
         <v>24</v>
       </c>
       <c r="K10" s="3">
-        <f>(K7*8)</f>
+        <f t="shared" si="48"/>
         <v>16</v>
       </c>
       <c r="L10" s="3">
-        <f>(L7*8)</f>
+        <f t="shared" si="48"/>
         <v>16</v>
       </c>
       <c r="M10" s="3">
-        <f>(M7*8)</f>
+        <f t="shared" si="48"/>
         <v>16</v>
       </c>
       <c r="N10" s="3">
-        <f>(N7*8)</f>
+        <f t="shared" si="48"/>
         <v>16</v>
       </c>
       <c r="O10" s="3">
-        <f>(O7*8)</f>
+        <f t="shared" si="48"/>
         <v>24</v>
       </c>
       <c r="P10" s="3">
-        <f>(P7*8)</f>
+        <f t="shared" si="48"/>
         <v>24</v>
       </c>
       <c r="Q10" s="3">
-        <f>(Q7*8)</f>
+        <f t="shared" si="48"/>
         <v>16</v>
       </c>
       <c r="R10" s="3">
-        <f>(R7*8)</f>
+        <f t="shared" si="48"/>
         <v>16</v>
       </c>
       <c r="S10" s="3">
-        <f>(S7*8)</f>
+        <f t="shared" si="48"/>
         <v>16</v>
       </c>
       <c r="T10" s="3">
-        <f>(T7*8)</f>
+        <f t="shared" si="48"/>
         <v>16</v>
       </c>
       <c r="U10" s="3">
-        <f>(U7*8)</f>
+        <f t="shared" si="48"/>
         <v>24</v>
       </c>
       <c r="V10" s="3">
-        <f>(V7*8)</f>
+        <f t="shared" si="48"/>
         <v>24</v>
       </c>
       <c r="W10" s="3">
-        <f>(W7*8)</f>
+        <f t="shared" si="48"/>
         <v>16</v>
       </c>
       <c r="X10" s="3">
-        <f>(X7*8)</f>
+        <f t="shared" si="48"/>
         <v>16</v>
       </c>
       <c r="Y10" s="3">
-        <f>(Y7*8)</f>
+        <f t="shared" si="48"/>
         <v>16</v>
       </c>
       <c r="Z10" s="3">
-        <f>(Z7*8)</f>
+        <f t="shared" si="48"/>
         <v>16</v>
       </c>
       <c r="AA10" s="3">
-        <f>(AA7*8)</f>
+        <f t="shared" si="48"/>
         <v>16</v>
       </c>
       <c r="AB10" s="3">
-        <f>(AB7*8)</f>
+        <f t="shared" si="48"/>
         <v>24</v>
       </c>
       <c r="AC10" s="3">
-        <f>(AC7*8)</f>
+        <f t="shared" si="48"/>
         <v>24</v>
       </c>
       <c r="AD10" s="3">
-        <f>(AD7*8)</f>
+        <f t="shared" si="48"/>
         <v>24</v>
       </c>
       <c r="AE10" s="3">
-        <f>(AE7*8)</f>
+        <f t="shared" si="48"/>
         <v>24</v>
       </c>
       <c r="AF10" s="3">
-        <f>(AF7*8)</f>
+        <f t="shared" si="48"/>
         <v>16</v>
       </c>
       <c r="AG10" s="3">
-        <f>(AG7*8)</f>
+        <f t="shared" si="48"/>
         <v>24</v>
       </c>
       <c r="AH10" s="3">
-        <f>(AH7*8)</f>
+        <f t="shared" si="48"/>
         <v>24</v>
       </c>
       <c r="AI10" s="3">
-        <f>(AI7*8)</f>
+        <f t="shared" si="48"/>
         <v>16</v>
       </c>
       <c r="AJ10" s="3">
-        <f>(AJ7*8)</f>
+        <f t="shared" si="48"/>
         <v>16</v>
       </c>
       <c r="AK10" s="3">
-        <f>(AK7*8)</f>
+        <f t="shared" si="48"/>
         <v>16</v>
       </c>
       <c r="AL10" s="3">
-        <f>(AL7*8)</f>
+        <f t="shared" si="48"/>
         <v>16</v>
       </c>
       <c r="AM10" s="3">
-        <f>(AM7*8)</f>
+        <f t="shared" si="48"/>
         <v>24</v>
       </c>
       <c r="AN10" s="3">
-        <f>(AN7*8)</f>
+        <f t="shared" si="48"/>
         <v>24</v>
       </c>
       <c r="AO10" s="3">
-        <f>(AO7*8)</f>
+        <f t="shared" si="48"/>
         <v>16</v>
       </c>
       <c r="AP10" s="3">
-        <f>(AP7*8)</f>
+        <f t="shared" si="48"/>
         <v>16</v>
       </c>
       <c r="AQ10" s="3">
-        <f>(AQ7*8)</f>
+        <f t="shared" si="48"/>
         <v>16</v>
       </c>
       <c r="AR10" s="3">
-        <f>(AR7*8)</f>
+        <f t="shared" si="48"/>
         <v>16</v>
       </c>
       <c r="AS10" s="3">
-        <f>(AS7*8)</f>
+        <f t="shared" si="48"/>
         <v>24</v>
       </c>
       <c r="AT10" s="3">
-        <f>(AT7*8)</f>
+        <f t="shared" si="48"/>
         <v>24</v>
       </c>
       <c r="AU10" s="3">
-        <f>(AU7*8)</f>
+        <f t="shared" si="48"/>
         <v>16</v>
       </c>
       <c r="AV10" s="3">
-        <f>(AV7*8)</f>
+        <f t="shared" si="48"/>
         <v>16</v>
       </c>
       <c r="AW10" s="3">
-        <f>(AW7*8)</f>
+        <f t="shared" si="48"/>
         <v>16</v>
       </c>
       <c r="AX10" s="3">
-        <f>(AX7*8)</f>
+        <f t="shared" si="48"/>
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:50">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.5">
       <c r="A11" s="9" t="s">
         <v>22</v>
       </c>
@@ -3264,7 +3288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:50">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.5">
       <c r="A12" s="9" t="s">
         <v>23</v>
       </c>
@@ -3414,7 +3438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:50">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.5">
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
@@ -3566,7 +3590,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:50" ht="30.75">
+    <row r="14" spans="1:50" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A14" s="10" t="s">
         <v>33</v>
       </c>
@@ -3718,7 +3742,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:50" ht="30.75">
+    <row r="15" spans="1:50" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A15" s="10" t="s">
         <v>36</v>
       </c>
@@ -3870,7 +3894,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:50" ht="30.75">
+    <row r="16" spans="1:50" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A16" s="21" t="s">
         <v>38</v>
       </c>
@@ -4022,309 +4046,324 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="15" customHeight="1">
-      <c r="A17" s="37" t="s">
+    <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="48" t="s">
+      <c r="B17" s="33"/>
+      <c r="C17" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
     </row>
-    <row r="18" spans="1:27" ht="15" customHeight="1">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
+    <row r="18" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
     </row>
-    <row r="19" spans="1:27" ht="15" customHeight="1">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="E19" s="46" t="s">
+    <row r="19" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="E19" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
     </row>
-    <row r="20" spans="1:27" ht="15" customHeight="1">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
+    <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
     </row>
-    <row r="21" spans="1:27" ht="15" customHeight="1">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="G21" s="50" t="s">
+    <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="G21" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
     </row>
-    <row r="22" spans="1:27" ht="15" customHeight="1">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
+    <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
     </row>
-    <row r="23" spans="1:27" ht="15" customHeight="1">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="I23" s="41" t="s">
+    <row r="23" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="I23" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
     </row>
-    <row r="24" spans="1:27" ht="15" customHeight="1">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
+    <row r="24" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
     </row>
-    <row r="25" spans="1:27" ht="15" customHeight="1">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="I25" s="51" t="s">
+    <row r="25" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="I25" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="J25" s="42" t="s">
+      <c r="J25" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
     </row>
-    <row r="26" spans="1:27" ht="15" customHeight="1">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
+    <row r="26" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
     </row>
-    <row r="27" spans="1:27" ht="15" customHeight="1">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="O27" s="47" t="s">
+    <row r="27" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="O27" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="47"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
     </row>
-    <row r="28" spans="1:27" ht="15" customHeight="1">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="47"/>
-      <c r="Q28" s="47"/>
+    <row r="28" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
     </row>
-    <row r="29" spans="1:27" ht="15" customHeight="1">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
-      <c r="R29" s="43" t="s">
+    <row r="29" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="R29" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="S29" s="43"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="43"/>
-      <c r="V29" s="43"/>
-      <c r="W29" s="43"/>
-      <c r="X29" s="43"/>
-      <c r="Y29" s="43"/>
-      <c r="Z29" s="43"/>
-      <c r="AA29" s="43"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="38"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="38"/>
+      <c r="W29" s="38"/>
+      <c r="X29" s="38"/>
+      <c r="Y29" s="38"/>
+      <c r="Z29" s="38"/>
+      <c r="AA29" s="38"/>
     </row>
-    <row r="30" spans="1:27" ht="15" customHeight="1">
-      <c r="A30" s="38"/>
-      <c r="B30" s="38"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="43"/>
-      <c r="T30" s="43"/>
-      <c r="U30" s="43"/>
-      <c r="V30" s="43"/>
-      <c r="W30" s="43"/>
-      <c r="X30" s="43"/>
-      <c r="Y30" s="43"/>
-      <c r="Z30" s="43"/>
-      <c r="AA30" s="43"/>
+    <row r="30" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="38"/>
+      <c r="U30" s="38"/>
+      <c r="V30" s="38"/>
+      <c r="W30" s="38"/>
+      <c r="X30" s="38"/>
+      <c r="Y30" s="38"/>
+      <c r="Z30" s="38"/>
+      <c r="AA30" s="38"/>
     </row>
-    <row r="31" spans="1:27" ht="15" customHeight="1">
-      <c r="A31" s="38"/>
-      <c r="B31" s="38"/>
-      <c r="Z31" s="44" t="s">
+    <row r="31" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="Z31" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="AA31" s="44"/>
+      <c r="AA31" s="39"/>
     </row>
-    <row r="32" spans="1:27" ht="15" customHeight="1">
-      <c r="A32" s="38"/>
-      <c r="B32" s="38"/>
-      <c r="Z32" s="44"/>
-      <c r="AA32" s="44"/>
+    <row r="32" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="Z32" s="39"/>
+      <c r="AA32" s="39"/>
     </row>
-    <row r="33" spans="1:38" ht="15" customHeight="1">
-      <c r="A33" s="38"/>
-      <c r="B33" s="38"/>
-      <c r="AB33" s="45" t="s">
+    <row r="33" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="AB33" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="AC33" s="45"/>
-      <c r="AD33" s="45"/>
-      <c r="AE33" s="45"/>
-      <c r="AF33" s="45"/>
-      <c r="AG33" s="45"/>
-      <c r="AH33" s="45"/>
-      <c r="AI33" s="45"/>
-      <c r="AJ33" s="45"/>
-      <c r="AK33" s="45"/>
-      <c r="AL33" s="45"/>
+      <c r="AC33" s="29"/>
+      <c r="AD33" s="29"/>
+      <c r="AE33" s="29"/>
+      <c r="AF33" s="29"/>
+      <c r="AG33" s="29"/>
+      <c r="AH33" s="29"/>
+      <c r="AI33" s="29"/>
+      <c r="AJ33" s="29"/>
+      <c r="AK33" s="29"/>
+      <c r="AL33" s="29"/>
     </row>
-    <row r="34" spans="1:38" ht="15" customHeight="1">
-      <c r="A34" s="38"/>
-      <c r="B34" s="38"/>
-      <c r="AB34" s="45"/>
-      <c r="AC34" s="45"/>
-      <c r="AD34" s="45"/>
-      <c r="AE34" s="45"/>
-      <c r="AF34" s="45"/>
-      <c r="AG34" s="45"/>
-      <c r="AH34" s="45"/>
-      <c r="AI34" s="45"/>
-      <c r="AJ34" s="45"/>
-      <c r="AK34" s="45"/>
-      <c r="AL34" s="45"/>
+    <row r="34" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="AB34" s="29"/>
+      <c r="AC34" s="29"/>
+      <c r="AD34" s="29"/>
+      <c r="AE34" s="29"/>
+      <c r="AF34" s="29"/>
+      <c r="AG34" s="29"/>
+      <c r="AH34" s="29"/>
+      <c r="AI34" s="29"/>
+      <c r="AJ34" s="29"/>
+      <c r="AK34" s="29"/>
+      <c r="AL34" s="29"/>
     </row>
-    <row r="35" spans="1:38" ht="15" customHeight="1">
-      <c r="A35" s="38"/>
-      <c r="B35" s="38"/>
-      <c r="AB35" s="36" t="s">
+    <row r="35" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
+      <c r="AB35" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="AC35" s="36"/>
-      <c r="AD35" s="36"/>
-      <c r="AE35" s="36"/>
-      <c r="AF35" s="36"/>
-      <c r="AG35" s="36"/>
-      <c r="AH35" s="36"/>
-      <c r="AI35" s="36"/>
-      <c r="AJ35" s="36"/>
-      <c r="AK35" s="36"/>
-      <c r="AL35" s="36"/>
+      <c r="AC35" s="30"/>
+      <c r="AD35" s="30"/>
+      <c r="AE35" s="30"/>
+      <c r="AF35" s="30"/>
+      <c r="AG35" s="30"/>
+      <c r="AH35" s="30"/>
+      <c r="AI35" s="30"/>
+      <c r="AJ35" s="30"/>
+      <c r="AK35" s="30"/>
+      <c r="AL35" s="30"/>
     </row>
-    <row r="36" spans="1:38" ht="15" customHeight="1">
-      <c r="A36" s="38"/>
-      <c r="B36" s="38"/>
-      <c r="AB36" s="36"/>
-      <c r="AC36" s="36"/>
-      <c r="AD36" s="36"/>
-      <c r="AE36" s="36"/>
-      <c r="AF36" s="36"/>
-      <c r="AG36" s="36"/>
-      <c r="AH36" s="36"/>
-      <c r="AI36" s="36"/>
-      <c r="AJ36" s="36"/>
-      <c r="AK36" s="36"/>
-      <c r="AL36" s="36"/>
+    <row r="36" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="AB36" s="30"/>
+      <c r="AC36" s="30"/>
+      <c r="AD36" s="30"/>
+      <c r="AE36" s="30"/>
+      <c r="AF36" s="30"/>
+      <c r="AG36" s="30"/>
+      <c r="AH36" s="30"/>
+      <c r="AI36" s="30"/>
+      <c r="AJ36" s="30"/>
+      <c r="AK36" s="30"/>
+      <c r="AL36" s="30"/>
     </row>
-    <row r="37" spans="1:38" ht="15" customHeight="1">
-      <c r="A37" s="38"/>
-      <c r="B37" s="38"/>
-      <c r="AB37" s="40" t="s">
+    <row r="37" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A37" s="34"/>
+      <c r="B37" s="34"/>
+      <c r="AB37" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="AC37" s="40"/>
-      <c r="AD37" s="40"/>
-      <c r="AE37" s="39" t="s">
+      <c r="AC37" s="35"/>
+      <c r="AD37" s="35"/>
+      <c r="AE37" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="AF37" s="39"/>
-      <c r="AG37" s="39"/>
-      <c r="AH37" s="39"/>
-      <c r="AI37" s="39"/>
-      <c r="AJ37" s="39"/>
-      <c r="AK37" s="39"/>
-      <c r="AL37" s="39"/>
+      <c r="AF37" s="31"/>
+      <c r="AG37" s="31"/>
+      <c r="AH37" s="31"/>
+      <c r="AI37" s="31"/>
+      <c r="AJ37" s="31"/>
+      <c r="AK37" s="31"/>
+      <c r="AL37" s="31"/>
     </row>
-    <row r="38" spans="1:38" ht="15" customHeight="1">
-      <c r="A38" s="38"/>
-      <c r="B38" s="38"/>
-      <c r="AB38" s="40"/>
-      <c r="AC38" s="40"/>
-      <c r="AD38" s="40"/>
-      <c r="AE38" s="39"/>
-      <c r="AF38" s="39"/>
-      <c r="AG38" s="39"/>
-      <c r="AH38" s="39"/>
-      <c r="AI38" s="39"/>
-      <c r="AJ38" s="39"/>
-      <c r="AK38" s="39"/>
-      <c r="AL38" s="39"/>
+    <row r="38" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="34"/>
+      <c r="B38" s="34"/>
+      <c r="AB38" s="35"/>
+      <c r="AC38" s="35"/>
+      <c r="AD38" s="35"/>
+      <c r="AE38" s="31"/>
+      <c r="AF38" s="31"/>
+      <c r="AG38" s="31"/>
+      <c r="AH38" s="31"/>
+      <c r="AI38" s="31"/>
+      <c r="AJ38" s="31"/>
+      <c r="AK38" s="31"/>
+      <c r="AL38" s="31"/>
     </row>
-    <row r="39" spans="1:38" ht="15" customHeight="1">
-      <c r="A39" s="38"/>
-      <c r="B39" s="38"/>
-      <c r="AK39" s="35" t="s">
+    <row r="39" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="34"/>
+      <c r="B39" s="34"/>
+      <c r="AK39" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="AL39" s="35"/>
+      <c r="AL39" s="32"/>
     </row>
-    <row r="40" spans="1:38">
-      <c r="A40" s="38"/>
-      <c r="B40" s="38"/>
-      <c r="AK40" s="35"/>
-      <c r="AL40" s="35"/>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.5">
+      <c r="A40" s="34"/>
+      <c r="B40" s="34"/>
+      <c r="AK40" s="32"/>
+      <c r="AL40" s="32"/>
     </row>
-    <row r="41" spans="1:38">
-      <c r="A41" s="38"/>
-      <c r="B41" s="38"/>
-      <c r="AL41" s="52" t="s">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.5">
+      <c r="A41" s="34"/>
+      <c r="B41" s="34"/>
+      <c r="AK41" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL41" s="54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A42" s="34"/>
+      <c r="B42" s="34"/>
+      <c r="AK42" s="53"/>
+      <c r="AL42" s="54"/>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.5">
+      <c r="AL43" s="28" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:38" ht="15" customHeight="1">
-      <c r="A42" s="38"/>
-      <c r="B42" s="38"/>
-      <c r="AL42" s="52"/>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.5">
+      <c r="AL44" s="28"/>
     </row>
-    <row r="47" spans="1:38" ht="15" customHeight="1"/>
-    <row r="48" spans="1:38" ht="15" customHeight="1"/>
+    <row r="47" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="48" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="AL41:AL42"/>
-    <mergeCell ref="AB33:AL34"/>
-    <mergeCell ref="AB35:AL36"/>
-    <mergeCell ref="AE37:AL38"/>
-    <mergeCell ref="AK39:AL40"/>
+  <mergeCells count="25">
+    <mergeCell ref="AL43:AL44"/>
+    <mergeCell ref="AI1:AO1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="N1:T1"/>
+    <mergeCell ref="U1:AA1"/>
+    <mergeCell ref="AB1:AH1"/>
     <mergeCell ref="A17:B42"/>
     <mergeCell ref="AB37:AD38"/>
     <mergeCell ref="I23:Q24"/>
@@ -4336,28 +4375,15 @@
     <mergeCell ref="C17:E18"/>
     <mergeCell ref="G21:J22"/>
     <mergeCell ref="I25:I26"/>
-    <mergeCell ref="AI1:AO1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="N1:T1"/>
-    <mergeCell ref="U1:AA1"/>
-    <mergeCell ref="AB1:AH1"/>
+    <mergeCell ref="AL41:AL42"/>
+    <mergeCell ref="AB33:AL34"/>
+    <mergeCell ref="AB35:AL36"/>
+    <mergeCell ref="AE37:AL38"/>
+    <mergeCell ref="AK39:AL40"/>
+    <mergeCell ref="AK41:AK42"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:A7">
     <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX15:AX16">
-    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4392,8 +4418,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="colorScale" priority="16">
+  <conditionalFormatting sqref="E14:I14">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4404,8 +4430,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14:I14">
-    <cfRule type="colorScale" priority="15">
+  <conditionalFormatting sqref="F14">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4584,6 +4610,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AX15:AX16">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B14" r:id="rId1" xr:uid="{B8D3D8A4-F42B-4710-A4C8-0F7997FF050B}"/>
     <hyperlink ref="B15" r:id="rId2" xr:uid="{3E0A5C73-0D1F-41DE-B62B-B882A538B931}"/>
@@ -4595,21 +4633,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005C7B61FF26B5F74E84F4B1FC3A0CE3B0" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8e244442854a5629709b63c7c2796622">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="807924ec-883e-4f18-a7ed-ad6f7e991c08" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="61784b2c9ef06f2e9b6684ee2ce910d1" ns2:_="">
     <xsd:import namespace="807924ec-883e-4f18-a7ed-ad6f7e991c08"/>
@@ -4747,14 +4770,52 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53F7E2B3-F5D2-418D-A99F-73BBBD56A857}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73E95AC-8499-4CAA-8C79-1C402783C3DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="807924ec-883e-4f18-a7ed-ad6f7e991c08"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12A72A66-B8C5-4BA1-9E94-039E7CAF7F6E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12A72A66-B8C5-4BA1-9E94-039E7CAF7F6E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73E95AC-8499-4CAA-8C79-1C402783C3DF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53F7E2B3-F5D2-418D-A99F-73BBBD56A857}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>